--- a/Inflation_rates.xlsx
+++ b/Inflation_rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudioolivelli/Documents/GitHub/Python lab/Turkey-Italy-salary-vs-inflation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD85E40-583F-CC42-8455-D3DB0B450B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAEF8A4-8E38-4B4D-A40E-C1DF660CB2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ITA</t>
   </si>
   <si>
     <t>TUR</t>
-  </si>
-  <si>
-    <t>Country Code</t>
   </si>
 </sst>
 </file>
@@ -369,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -380,240 +377,271 @@
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1998</v>
-      </c>
-      <c r="C1">
-        <v>1999</v>
-      </c>
-      <c r="D1">
-        <v>2000</v>
-      </c>
-      <c r="E1">
-        <v>2001</v>
-      </c>
-      <c r="F1">
-        <v>2002</v>
-      </c>
-      <c r="G1">
-        <v>2003</v>
-      </c>
-      <c r="H1">
-        <v>2004</v>
-      </c>
-      <c r="I1">
-        <v>2005</v>
-      </c>
-      <c r="J1">
-        <v>2006</v>
-      </c>
-      <c r="K1">
-        <v>2007</v>
-      </c>
-      <c r="L1">
-        <v>2008</v>
-      </c>
-      <c r="M1">
-        <v>2009</v>
-      </c>
-      <c r="N1">
-        <v>2010</v>
-      </c>
-      <c r="O1">
-        <v>2011</v>
-      </c>
-      <c r="P1">
-        <v>2012</v>
-      </c>
-      <c r="Q1">
-        <v>2013</v>
-      </c>
-      <c r="R1">
-        <v>2014</v>
-      </c>
-      <c r="S1">
-        <v>2015</v>
-      </c>
-      <c r="T1">
-        <v>2016</v>
-      </c>
-      <c r="U1">
-        <v>2017</v>
-      </c>
-      <c r="V1">
-        <v>2018</v>
-      </c>
-      <c r="W1">
-        <v>2019</v>
-      </c>
-      <c r="X1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="B2">
         <v>84.641343484631506</v>
       </c>
       <c r="C2">
+        <v>1.95508557719383</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1999</v>
+      </c>
+      <c r="B3">
         <v>64.867487635075705</v>
-      </c>
-      <c r="D2">
-        <v>54.915370581268299</v>
-      </c>
-      <c r="E2">
-        <v>54.400188761907501</v>
-      </c>
-      <c r="F2">
-        <v>44.964120947984902</v>
-      </c>
-      <c r="G2">
-        <v>21.602438449057299</v>
-      </c>
-      <c r="H2">
-        <v>8.5982616811526693</v>
-      </c>
-      <c r="I2">
-        <v>8.1791603680200105</v>
-      </c>
-      <c r="J2">
-        <v>9.5972421228844507</v>
-      </c>
-      <c r="K2">
-        <v>8.7561809097263499</v>
-      </c>
-      <c r="L2">
-        <v>10.4441283764885</v>
-      </c>
-      <c r="M2">
-        <v>6.2509766309062504</v>
-      </c>
-      <c r="N2">
-        <v>8.5664442055297698</v>
-      </c>
-      <c r="O2">
-        <v>6.4718796711509698</v>
-      </c>
-      <c r="P2">
-        <v>8.89156996512164</v>
-      </c>
-      <c r="Q2">
-        <v>7.4930903054769704</v>
-      </c>
-      <c r="R2">
-        <v>8.8545727136431793</v>
-      </c>
-      <c r="S2">
-        <v>7.6708536484587997</v>
-      </c>
-      <c r="T2">
-        <v>7.7751341532833402</v>
-      </c>
-      <c r="U2">
-        <v>11.144311084076399</v>
-      </c>
-      <c r="V2">
-        <v>16.3324638988929</v>
-      </c>
-      <c r="W2">
-        <v>15.1768215720023</v>
-      </c>
-      <c r="X2">
-        <v>12.278957446257399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1.95508557719383</v>
       </c>
       <c r="C3">
         <v>1.6634599500771401</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>54.915370581268299</v>
+      </c>
+      <c r="C4">
         <v>2.5376853209500498</v>
       </c>
-      <c r="E3">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5">
+        <v>54.400188761907501</v>
+      </c>
+      <c r="C5">
         <v>2.7851654271355502</v>
       </c>
-      <c r="F3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2002</v>
+      </c>
+      <c r="B6">
+        <v>44.964120947984902</v>
+      </c>
+      <c r="C6">
         <v>2.46532319171164</v>
       </c>
-      <c r="G3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2003</v>
+      </c>
+      <c r="B7">
+        <v>21.602438449057299</v>
+      </c>
+      <c r="C7">
         <v>2.67255552772852</v>
       </c>
-      <c r="H3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8">
+        <v>8.5982616811526693</v>
+      </c>
+      <c r="C8">
         <v>2.2067366142365401</v>
       </c>
-      <c r="I3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2005</v>
+      </c>
+      <c r="B9">
+        <v>8.1791603680200105</v>
+      </c>
+      <c r="C9">
         <v>1.98529298527983</v>
       </c>
-      <c r="J3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10">
+        <v>9.5972421228844507</v>
+      </c>
+      <c r="C10">
         <v>2.0908439101275502</v>
       </c>
-      <c r="K3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2007</v>
+      </c>
+      <c r="B11">
+        <v>8.7561809097263499</v>
+      </c>
+      <c r="C11">
         <v>1.8297411220240001</v>
       </c>
-      <c r="L3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12">
+        <v>10.4441283764885</v>
+      </c>
+      <c r="C12">
         <v>3.3478325840102299</v>
       </c>
-      <c r="M3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2009</v>
+      </c>
+      <c r="B13">
+        <v>6.2509766309062504</v>
+      </c>
+      <c r="C13">
         <v>0.77476813138738398</v>
       </c>
-      <c r="N3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2010</v>
+      </c>
+      <c r="B14">
+        <v>8.5664442055297698</v>
+      </c>
+      <c r="C14">
         <v>1.5255160211824801</v>
       </c>
-      <c r="O3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2011</v>
+      </c>
+      <c r="B15">
+        <v>6.4718796711509698</v>
+      </c>
+      <c r="C15">
         <v>2.7806327287932402</v>
       </c>
-      <c r="P3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="B16">
+        <v>8.89156996512164</v>
+      </c>
+      <c r="C16">
         <v>3.0413633322677298</v>
       </c>
-      <c r="Q3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2013</v>
+      </c>
+      <c r="B17">
+        <v>7.4930903054769704</v>
+      </c>
+      <c r="C17">
         <v>1.21999342274305</v>
       </c>
-      <c r="R3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2014</v>
+      </c>
+      <c r="B18">
+        <v>8.8545727136431793</v>
+      </c>
+      <c r="C18">
         <v>0.24104742982677299</v>
       </c>
-      <c r="S3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2015</v>
+      </c>
+      <c r="B19">
+        <v>7.6708536484587997</v>
+      </c>
+      <c r="C19">
         <v>3.87903996579552E-2</v>
       </c>
-      <c r="T3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2016</v>
+      </c>
+      <c r="B20">
+        <v>7.7751341532833402</v>
+      </c>
+      <c r="C20">
         <v>-9.4016656915727095E-2</v>
       </c>
-      <c r="U3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2017</v>
+      </c>
+      <c r="B21">
+        <v>11.144311084076399</v>
+      </c>
+      <c r="C21">
         <v>1.2265331664580801</v>
       </c>
-      <c r="V3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22">
+        <v>16.3324638988929</v>
+      </c>
+      <c r="C22">
         <v>1.1374876360039501</v>
       </c>
-      <c r="W3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23">
+        <v>15.1768215720023</v>
+      </c>
+      <c r="C23">
         <v>0.61124694376529098</v>
       </c>
-      <c r="X3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2020</v>
+      </c>
+      <c r="B24">
+        <v>12.278957446257399</v>
+      </c>
+      <c r="C24">
         <v>-0.13770757391656999</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
